--- a/expected_results_visum.xlsx
+++ b/expected_results_visum.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="all_simulations_visum" sheetId="1" r:id="rId1"/>
@@ -939,15 +939,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:R1"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1000,245 +1000,245 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>24.9285139551124</v>
+        <v>26.2793741503055</v>
       </c>
       <c r="B2">
-        <v>-1.6506244471248901</v>
+        <v>-0.96924163506563299</v>
       </c>
       <c r="C2">
-        <v>-1.0928442269907499</v>
+        <v>-0.62384609595773099</v>
       </c>
       <c r="D2">
-        <v>1.2065588609807401</v>
+        <v>1.3159461175284199</v>
       </c>
       <c r="E2">
-        <v>2.3644146011481002</v>
+        <v>3.8877334115681998</v>
       </c>
       <c r="F2">
-        <v>47.882975688661197</v>
+        <v>21.196971005332699</v>
       </c>
       <c r="G2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>27.9107899425643</v>
+        <v>48.233551938813498</v>
       </c>
       <c r="B3">
-        <v>-1.9402393422356099</v>
+        <v>-0.83844766011776495</v>
       </c>
       <c r="C3">
-        <v>-1.5680472655473601</v>
+        <v>-1.6413001268793701</v>
       </c>
       <c r="D3">
-        <v>1.2065588609807401</v>
+        <v>1.3159461175284199</v>
       </c>
       <c r="E3">
-        <v>2.3644146011481002</v>
+        <v>3.8877334115681998</v>
       </c>
       <c r="F3">
-        <v>47.882975688661197</v>
+        <v>21.196971005332699</v>
       </c>
       <c r="G3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>37.900446001125502</v>
+        <v>24.300924299481299</v>
       </c>
       <c r="B4">
-        <v>-1.2163112620866501</v>
+        <v>-0.65868386082716102</v>
       </c>
       <c r="C4">
-        <v>-1.1639503036766901</v>
+        <v>-1.77108015076118</v>
       </c>
       <c r="D4">
-        <v>1.2065588609807401</v>
+        <v>1.3159461175284199</v>
       </c>
       <c r="E4">
-        <v>2.3644146011481002</v>
+        <v>3.8877334115681998</v>
       </c>
       <c r="F4">
-        <v>47.882975688661197</v>
+        <v>21.196971005332699</v>
       </c>
       <c r="G4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>43.137063218729097</v>
+        <v>40.662434717061302</v>
       </c>
       <c r="B5">
-        <v>-0.87891410192857999</v>
+        <v>-1.80629446099171</v>
       </c>
       <c r="C5">
-        <v>-0.69688883599956997</v>
+        <v>-1.0822223445243699</v>
       </c>
       <c r="D5">
-        <v>1.2065588609807401</v>
+        <v>1.3159461175284199</v>
       </c>
       <c r="E5">
-        <v>2.3644146011481002</v>
+        <v>3.8877334115681998</v>
       </c>
       <c r="F5">
-        <v>47.882975688661197</v>
+        <v>21.196971005332699</v>
       </c>
       <c r="G5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>46.215595691294801</v>
+        <v>33.707947058510598</v>
       </c>
       <c r="B6">
-        <v>-0.72096946081259605</v>
+        <v>-1.4471876604234499</v>
       </c>
       <c r="C6">
-        <v>-1.7382712965257101</v>
+        <v>-1.4286988627238499</v>
       </c>
       <c r="D6">
-        <v>1.2065588609807401</v>
+        <v>1.3159461175284199</v>
       </c>
       <c r="E6">
-        <v>2.3644146011481002</v>
+        <v>3.8877334115681998</v>
       </c>
       <c r="F6">
-        <v>47.882975688661197</v>
+        <v>21.196971005332699</v>
       </c>
       <c r="G6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>24.9285139551124</v>
+        <v>22.2587115165033</v>
       </c>
       <c r="B7">
-        <v>-1.6506244471248901</v>
+        <v>-1.94817551381237</v>
       </c>
       <c r="C7">
-        <v>-1.0928442269907499</v>
+        <v>-1.30837800099903</v>
       </c>
       <c r="D7">
-        <v>1.68321472484722</v>
+        <v>1.3159461175284199</v>
       </c>
       <c r="E7">
-        <v>1.06352107710235</v>
+        <v>3.8877334115681998</v>
       </c>
       <c r="F7">
-        <v>29.898386854788502</v>
+        <v>21.196971005332699</v>
       </c>
       <c r="G7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>27.9107899425643</v>
+        <v>35.377287155167501</v>
       </c>
       <c r="B8">
-        <v>-1.9402393422356099</v>
+        <v>-1.3876928247536</v>
       </c>
       <c r="C8">
-        <v>-1.5680472655473601</v>
+        <v>-1.9629093256410099</v>
       </c>
       <c r="D8">
-        <v>1.68321472484722</v>
+        <v>1.3159461175284199</v>
       </c>
       <c r="E8">
-        <v>1.06352107710235</v>
+        <v>3.8877334115681998</v>
       </c>
       <c r="F8">
-        <v>29.898386854788502</v>
+        <v>21.196971005332699</v>
       </c>
       <c r="G8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>37.900446001125502</v>
+        <v>42.993215320647899</v>
       </c>
       <c r="B9">
-        <v>-1.2163112620866501</v>
+        <v>-1.19415783945794</v>
       </c>
       <c r="C9">
-        <v>-1.1639503036766901</v>
+        <v>-1.2108520953573101</v>
       </c>
       <c r="D9">
-        <v>1.68321472484722</v>
+        <v>1.3159461175284199</v>
       </c>
       <c r="E9">
-        <v>1.06352107710235</v>
+        <v>3.8877334115681998</v>
       </c>
       <c r="F9">
-        <v>29.898386854788502</v>
+        <v>21.196971005332699</v>
       </c>
       <c r="G9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>43.137063218729097</v>
+        <v>46.856264149501698</v>
       </c>
       <c r="B10">
-        <v>-0.87891410192857999</v>
+        <v>-1.6555826066749899</v>
       </c>
       <c r="C10">
-        <v>-0.69688883599956997</v>
+        <v>-0.725190435839843</v>
       </c>
       <c r="D10">
-        <v>1.68321472484722</v>
+        <v>1.3159461175284199</v>
       </c>
       <c r="E10">
-        <v>1.06352107710235</v>
+        <v>3.8877334115681998</v>
       </c>
       <c r="F10">
-        <v>29.898386854788502</v>
+        <v>21.196971005332699</v>
       </c>
       <c r="G10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>46.215595691294801</v>
+        <v>30.355187716676099</v>
       </c>
       <c r="B11">
-        <v>-0.72096946081259605</v>
+        <v>-0.60843602210252301</v>
       </c>
       <c r="C11">
-        <v>-1.7382712965257101</v>
+        <v>-0.85469832400846701</v>
       </c>
       <c r="D11">
-        <v>1.68321472484722</v>
+        <v>1.3159461175284199</v>
       </c>
       <c r="E11">
-        <v>1.06352107710235</v>
+        <v>3.8877334115681998</v>
       </c>
       <c r="F11">
-        <v>29.898386854788502</v>
+        <v>21.196971005332699</v>
       </c>
       <c r="G11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>24.9285139551124</v>
+        <v>26.2793741503055</v>
       </c>
       <c r="B12">
-        <v>-1.6506244471248901</v>
+        <v>-0.96924163506563299</v>
       </c>
       <c r="C12">
-        <v>-1.0928442269907499</v>
+        <v>-0.62384609595773099</v>
       </c>
       <c r="D12">
         <v>0.950592124843744</v>
@@ -1253,15 +1253,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>27.9107899425643</v>
+        <v>48.233551938813498</v>
       </c>
       <c r="B13">
-        <v>-1.9402393422356099</v>
+        <v>-0.83844766011776495</v>
       </c>
       <c r="C13">
-        <v>-1.5680472655473601</v>
+        <v>-1.6413001268793701</v>
       </c>
       <c r="D13">
         <v>0.950592124843744</v>
@@ -1276,15 +1276,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>37.900446001125502</v>
+        <v>24.300924299481299</v>
       </c>
       <c r="B14">
-        <v>-1.2163112620866501</v>
+        <v>-0.65868386082716102</v>
       </c>
       <c r="C14">
-        <v>-1.1639503036766901</v>
+        <v>-1.77108015076118</v>
       </c>
       <c r="D14">
         <v>0.950592124843744</v>
@@ -1299,15 +1299,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>43.137063218729097</v>
+        <v>40.662434717061302</v>
       </c>
       <c r="B15">
-        <v>-0.87891410192857999</v>
+        <v>-1.80629446099171</v>
       </c>
       <c r="C15">
-        <v>-0.69688883599956997</v>
+        <v>-1.0822223445243699</v>
       </c>
       <c r="D15">
         <v>0.950592124843744</v>
@@ -1322,15 +1322,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>46.215595691294801</v>
+        <v>33.707947058510598</v>
       </c>
       <c r="B16">
-        <v>-0.72096946081259605</v>
+        <v>-1.4471876604234499</v>
       </c>
       <c r="C16">
-        <v>-1.7382712965257101</v>
+        <v>-1.4286988627238499</v>
       </c>
       <c r="D16">
         <v>0.950592124843744</v>
@@ -1345,234 +1345,809 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>24.9285139551124</v>
+        <v>22.2587115165033</v>
       </c>
       <c r="B17">
-        <v>-1.6506244471248901</v>
+        <v>-1.94817551381237</v>
       </c>
       <c r="C17">
-        <v>-1.0928442269907499</v>
+        <v>-1.30837800099903</v>
       </c>
       <c r="D17">
-        <v>0.94786338700628903</v>
+        <v>0.950592124843744</v>
       </c>
       <c r="E17">
-        <v>1.6944510057056601</v>
+        <v>2.8826572637332002</v>
       </c>
       <c r="F17">
-        <v>64.145972266396001</v>
+        <v>33.509119708039002</v>
       </c>
       <c r="G17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>27.9107899425643</v>
+        <v>35.377287155167501</v>
       </c>
       <c r="B18">
-        <v>-1.9402393422356099</v>
+        <v>-1.3876928247536</v>
       </c>
       <c r="C18">
-        <v>-1.5680472655473601</v>
+        <v>-1.9629093256410099</v>
       </c>
       <c r="D18">
-        <v>0.94786338700628903</v>
+        <v>0.950592124843744</v>
       </c>
       <c r="E18">
-        <v>1.6944510057056601</v>
+        <v>2.8826572637332002</v>
       </c>
       <c r="F18">
-        <v>64.145972266396001</v>
+        <v>33.509119708039002</v>
       </c>
       <c r="G18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>37.900446001125502</v>
+        <v>42.993215320647899</v>
       </c>
       <c r="B19">
-        <v>-1.2163112620866501</v>
+        <v>-1.19415783945794</v>
       </c>
       <c r="C19">
-        <v>-1.1639503036766901</v>
+        <v>-1.2108520953573101</v>
       </c>
       <c r="D19">
-        <v>0.94786338700628903</v>
+        <v>0.950592124843744</v>
       </c>
       <c r="E19">
-        <v>1.6944510057056601</v>
+        <v>2.8826572637332002</v>
       </c>
       <c r="F19">
-        <v>64.145972266396001</v>
+        <v>33.509119708039002</v>
       </c>
       <c r="G19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>43.137063218729097</v>
+        <v>46.856264149501698</v>
       </c>
       <c r="B20">
-        <v>-0.87891410192857999</v>
+        <v>-1.6555826066749899</v>
       </c>
       <c r="C20">
-        <v>-0.69688883599956997</v>
+        <v>-0.725190435839843</v>
       </c>
       <c r="D20">
-        <v>0.94786338700628903</v>
+        <v>0.950592124843744</v>
       </c>
       <c r="E20">
-        <v>1.6944510057056601</v>
+        <v>2.8826572637332002</v>
       </c>
       <c r="F20">
-        <v>64.145972266396001</v>
+        <v>33.509119708039002</v>
       </c>
       <c r="G20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>46.215595691294801</v>
+        <v>30.355187716676099</v>
       </c>
       <c r="B21">
-        <v>-0.72096946081259605</v>
+        <v>-0.60843602210252301</v>
       </c>
       <c r="C21">
-        <v>-1.7382712965257101</v>
+        <v>-0.85469832400846701</v>
       </c>
       <c r="D21">
-        <v>0.94786338700628903</v>
+        <v>0.950592124843744</v>
       </c>
       <c r="E21">
-        <v>1.6944510057056601</v>
+        <v>2.8826572637332002</v>
       </c>
       <c r="F21">
-        <v>64.145972266396001</v>
+        <v>33.509119708039002</v>
       </c>
       <c r="G21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>24.9285139551124</v>
+        <v>26.2793741503055</v>
       </c>
       <c r="B22">
-        <v>-1.6506244471248901</v>
+        <v>-0.96924163506563299</v>
       </c>
       <c r="C22">
-        <v>-1.0928442269907499</v>
+        <v>-0.62384609595773099</v>
       </c>
       <c r="D22">
-        <v>0.94786338700628903</v>
+        <v>1.4530145692429699</v>
       </c>
       <c r="E22">
-        <v>1.6944510057056601</v>
+        <v>2.1844417765517901</v>
       </c>
       <c r="F22">
-        <v>64.145972266396001</v>
+        <v>38.533818285210202</v>
       </c>
       <c r="G22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>27.9107899425643</v>
+        <v>48.233551938813498</v>
       </c>
       <c r="B23">
-        <v>-1.9402393422356099</v>
+        <v>-0.83844766011776495</v>
       </c>
       <c r="C23">
-        <v>-1.5680472655473601</v>
+        <v>-1.6413001268793701</v>
       </c>
       <c r="D23">
-        <v>0.94786338700628903</v>
+        <v>1.4530145692429699</v>
       </c>
       <c r="E23">
-        <v>1.6944510057056601</v>
+        <v>2.1844417765517901</v>
       </c>
       <c r="F23">
-        <v>64.145972266396001</v>
+        <v>38.533818285210202</v>
       </c>
       <c r="G23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>37.900446001125502</v>
+        <v>24.300924299481299</v>
       </c>
       <c r="B24">
-        <v>-1.2163112620866501</v>
+        <v>-0.65868386082716102</v>
       </c>
       <c r="C24">
-        <v>-1.1639503036766901</v>
+        <v>-1.77108015076118</v>
       </c>
       <c r="D24">
-        <v>0.94786338700628903</v>
+        <v>1.4530145692429699</v>
       </c>
       <c r="E24">
-        <v>1.6944510057056601</v>
+        <v>2.1844417765517901</v>
       </c>
       <c r="F24">
-        <v>64.145972266396001</v>
+        <v>38.533818285210202</v>
       </c>
       <c r="G24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>43.137063218729097</v>
+        <v>40.662434717061302</v>
       </c>
       <c r="B25">
-        <v>-0.87891410192857999</v>
+        <v>-1.80629446099171</v>
       </c>
       <c r="C25">
-        <v>-0.69688883599956997</v>
+        <v>-1.0822223445243699</v>
       </c>
       <c r="D25">
-        <v>0.94786338700628903</v>
+        <v>1.4530145692429699</v>
       </c>
       <c r="E25">
-        <v>1.6944510057056601</v>
+        <v>2.1844417765517901</v>
       </c>
       <c r="F25">
-        <v>64.145972266396001</v>
+        <v>38.533818285210202</v>
       </c>
       <c r="G25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>46.215595691294801</v>
+        <v>33.707947058510598</v>
       </c>
       <c r="B26">
-        <v>-0.72096946081259605</v>
+        <v>-1.4471876604234499</v>
       </c>
       <c r="C26">
-        <v>-1.7382712965257101</v>
+        <v>-1.4286988627238499</v>
       </c>
       <c r="D26">
-        <v>0.94786338700628903</v>
+        <v>1.4530145692429699</v>
       </c>
       <c r="E26">
-        <v>1.6944510057056601</v>
+        <v>2.1844417765517901</v>
       </c>
       <c r="F26">
-        <v>64.145972266396001</v>
+        <v>38.533818285210202</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>22.2587115165033</v>
+      </c>
+      <c r="B27">
+        <v>-1.94817551381237</v>
+      </c>
+      <c r="C27">
+        <v>-1.30837800099903</v>
+      </c>
+      <c r="D27">
+        <v>1.4530145692429699</v>
+      </c>
+      <c r="E27">
+        <v>2.1844417765517901</v>
+      </c>
+      <c r="F27">
+        <v>38.533818285210202</v>
+      </c>
+      <c r="G27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>35.377287155167501</v>
+      </c>
+      <c r="B28">
+        <v>-1.3876928247536</v>
+      </c>
+      <c r="C28">
+        <v>-1.9629093256410099</v>
+      </c>
+      <c r="D28">
+        <v>1.4530145692429699</v>
+      </c>
+      <c r="E28">
+        <v>2.1844417765517901</v>
+      </c>
+      <c r="F28">
+        <v>38.533818285210202</v>
+      </c>
+      <c r="G28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>42.993215320647899</v>
+      </c>
+      <c r="B29">
+        <v>-1.19415783945794</v>
+      </c>
+      <c r="C29">
+        <v>-1.2108520953573101</v>
+      </c>
+      <c r="D29">
+        <v>1.4530145692429699</v>
+      </c>
+      <c r="E29">
+        <v>2.1844417765517901</v>
+      </c>
+      <c r="F29">
+        <v>38.533818285210202</v>
+      </c>
+      <c r="G29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>46.856264149501698</v>
+      </c>
+      <c r="B30">
+        <v>-1.6555826066749899</v>
+      </c>
+      <c r="C30">
+        <v>-0.725190435839843</v>
+      </c>
+      <c r="D30">
+        <v>1.4530145692429699</v>
+      </c>
+      <c r="E30">
+        <v>2.1844417765517901</v>
+      </c>
+      <c r="F30">
+        <v>38.533818285210202</v>
+      </c>
+      <c r="G30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30.355187716676099</v>
+      </c>
+      <c r="B31">
+        <v>-0.60843602210252301</v>
+      </c>
+      <c r="C31">
+        <v>-0.85469832400846701</v>
+      </c>
+      <c r="D31">
+        <v>1.4530145692429699</v>
+      </c>
+      <c r="E31">
+        <v>2.1844417765517901</v>
+      </c>
+      <c r="F31">
+        <v>38.533818285210202</v>
+      </c>
+      <c r="G31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>26.2793741503055</v>
+      </c>
+      <c r="B32">
+        <v>-0.96924163506563299</v>
+      </c>
+      <c r="C32">
+        <v>-0.62384609595773099</v>
+      </c>
+      <c r="D32">
+        <v>1.4530145692429699</v>
+      </c>
+      <c r="E32">
+        <v>2.1844417765517901</v>
+      </c>
+      <c r="F32">
+        <v>38.533818285210202</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>48.233551938813498</v>
+      </c>
+      <c r="B33">
+        <v>-0.83844766011776495</v>
+      </c>
+      <c r="C33">
+        <v>-1.6413001268793701</v>
+      </c>
+      <c r="D33">
+        <v>1.4530145692429699</v>
+      </c>
+      <c r="E33">
+        <v>2.1844417765517901</v>
+      </c>
+      <c r="F33">
+        <v>38.533818285210202</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>24.300924299481299</v>
+      </c>
+      <c r="B34">
+        <v>-0.65868386082716102</v>
+      </c>
+      <c r="C34">
+        <v>-1.77108015076118</v>
+      </c>
+      <c r="D34">
+        <v>1.4530145692429699</v>
+      </c>
+      <c r="E34">
+        <v>2.1844417765517901</v>
+      </c>
+      <c r="F34">
+        <v>38.533818285210202</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>40.662434717061302</v>
+      </c>
+      <c r="B35">
+        <v>-1.80629446099171</v>
+      </c>
+      <c r="C35">
+        <v>-1.0822223445243699</v>
+      </c>
+      <c r="D35">
+        <v>1.4530145692429699</v>
+      </c>
+      <c r="E35">
+        <v>2.1844417765517901</v>
+      </c>
+      <c r="F35">
+        <v>38.533818285210202</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>33.707947058510598</v>
+      </c>
+      <c r="B36">
+        <v>-1.4471876604234499</v>
+      </c>
+      <c r="C36">
+        <v>-1.4286988627238499</v>
+      </c>
+      <c r="D36">
+        <v>1.4530145692429699</v>
+      </c>
+      <c r="E36">
+        <v>2.1844417765517901</v>
+      </c>
+      <c r="F36">
+        <v>38.533818285210202</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>22.2587115165033</v>
+      </c>
+      <c r="B37">
+        <v>-1.94817551381237</v>
+      </c>
+      <c r="C37">
+        <v>-1.30837800099903</v>
+      </c>
+      <c r="D37">
+        <v>1.4530145692429699</v>
+      </c>
+      <c r="E37">
+        <v>2.1844417765517901</v>
+      </c>
+      <c r="F37">
+        <v>38.533818285210202</v>
+      </c>
+      <c r="G37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>35.377287155167501</v>
+      </c>
+      <c r="B38">
+        <v>-1.3876928247536</v>
+      </c>
+      <c r="C38">
+        <v>-1.9629093256410099</v>
+      </c>
+      <c r="D38">
+        <v>1.4530145692429699</v>
+      </c>
+      <c r="E38">
+        <v>2.1844417765517901</v>
+      </c>
+      <c r="F38">
+        <v>38.533818285210202</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>42.993215320647899</v>
+      </c>
+      <c r="B39">
+        <v>-1.19415783945794</v>
+      </c>
+      <c r="C39">
+        <v>-1.2108520953573101</v>
+      </c>
+      <c r="D39">
+        <v>1.4530145692429699</v>
+      </c>
+      <c r="E39">
+        <v>2.1844417765517901</v>
+      </c>
+      <c r="F39">
+        <v>38.533818285210202</v>
+      </c>
+      <c r="G39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>46.856264149501698</v>
+      </c>
+      <c r="B40">
+        <v>-1.6555826066749899</v>
+      </c>
+      <c r="C40">
+        <v>-0.725190435839843</v>
+      </c>
+      <c r="D40">
+        <v>1.4530145692429699</v>
+      </c>
+      <c r="E40">
+        <v>2.1844417765517901</v>
+      </c>
+      <c r="F40">
+        <v>38.533818285210202</v>
+      </c>
+      <c r="G40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>30.355187716676099</v>
+      </c>
+      <c r="B41">
+        <v>-0.60843602210252301</v>
+      </c>
+      <c r="C41">
+        <v>-0.85469832400846701</v>
+      </c>
+      <c r="D41">
+        <v>1.4530145692429699</v>
+      </c>
+      <c r="E41">
+        <v>2.1844417765517901</v>
+      </c>
+      <c r="F41">
+        <v>38.533818285210202</v>
+      </c>
+      <c r="G41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>26.2793741503055</v>
+      </c>
+      <c r="B42">
+        <v>-0.96924163506563299</v>
+      </c>
+      <c r="C42">
+        <v>-0.62384609595773099</v>
+      </c>
+      <c r="D42">
+        <v>0.950592124843744</v>
+      </c>
+      <c r="E42">
+        <v>2.8826572637332002</v>
+      </c>
+      <c r="F42">
+        <v>33.509119708039002</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>48.233551938813498</v>
+      </c>
+      <c r="B43">
+        <v>-0.83844766011776495</v>
+      </c>
+      <c r="C43">
+        <v>-1.6413001268793701</v>
+      </c>
+      <c r="D43">
+        <v>0.950592124843744</v>
+      </c>
+      <c r="E43">
+        <v>2.8826572637332002</v>
+      </c>
+      <c r="F43">
+        <v>33.509119708039002</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>24.300924299481299</v>
+      </c>
+      <c r="B44">
+        <v>-0.65868386082716102</v>
+      </c>
+      <c r="C44">
+        <v>-1.77108015076118</v>
+      </c>
+      <c r="D44">
+        <v>0.950592124843744</v>
+      </c>
+      <c r="E44">
+        <v>2.8826572637332002</v>
+      </c>
+      <c r="F44">
+        <v>33.509119708039002</v>
+      </c>
+      <c r="G44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>40.662434717061302</v>
+      </c>
+      <c r="B45">
+        <v>-1.80629446099171</v>
+      </c>
+      <c r="C45">
+        <v>-1.0822223445243699</v>
+      </c>
+      <c r="D45">
+        <v>0.950592124843744</v>
+      </c>
+      <c r="E45">
+        <v>2.8826572637332002</v>
+      </c>
+      <c r="F45">
+        <v>33.509119708039002</v>
+      </c>
+      <c r="G45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>33.707947058510598</v>
+      </c>
+      <c r="B46">
+        <v>-1.4471876604234499</v>
+      </c>
+      <c r="C46">
+        <v>-1.4286988627238499</v>
+      </c>
+      <c r="D46">
+        <v>0.950592124843744</v>
+      </c>
+      <c r="E46">
+        <v>2.8826572637332002</v>
+      </c>
+      <c r="F46">
+        <v>33.509119708039002</v>
+      </c>
+      <c r="G46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>22.2587115165033</v>
+      </c>
+      <c r="B47">
+        <v>-1.94817551381237</v>
+      </c>
+      <c r="C47">
+        <v>-1.30837800099903</v>
+      </c>
+      <c r="D47">
+        <v>0.950592124843744</v>
+      </c>
+      <c r="E47">
+        <v>2.8826572637332002</v>
+      </c>
+      <c r="F47">
+        <v>33.509119708039002</v>
+      </c>
+      <c r="G47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>35.377287155167501</v>
+      </c>
+      <c r="B48">
+        <v>-1.3876928247536</v>
+      </c>
+      <c r="C48">
+        <v>-1.9629093256410099</v>
+      </c>
+      <c r="D48">
+        <v>0.950592124843744</v>
+      </c>
+      <c r="E48">
+        <v>2.8826572637332002</v>
+      </c>
+      <c r="F48">
+        <v>33.509119708039002</v>
+      </c>
+      <c r="G48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>42.993215320647899</v>
+      </c>
+      <c r="B49">
+        <v>-1.19415783945794</v>
+      </c>
+      <c r="C49">
+        <v>-1.2108520953573101</v>
+      </c>
+      <c r="D49">
+        <v>0.950592124843744</v>
+      </c>
+      <c r="E49">
+        <v>2.8826572637332002</v>
+      </c>
+      <c r="F49">
+        <v>33.509119708039002</v>
+      </c>
+      <c r="G49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>46.856264149501698</v>
+      </c>
+      <c r="B50">
+        <v>-1.6555826066749899</v>
+      </c>
+      <c r="C50">
+        <v>-0.725190435839843</v>
+      </c>
+      <c r="D50">
+        <v>0.950592124843744</v>
+      </c>
+      <c r="E50">
+        <v>2.8826572637332002</v>
+      </c>
+      <c r="F50">
+        <v>33.509119708039002</v>
+      </c>
+      <c r="G50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>30.355187716676099</v>
+      </c>
+      <c r="B51">
+        <v>-0.60843602210252301</v>
+      </c>
+      <c r="C51">
+        <v>-0.85469832400846701</v>
+      </c>
+      <c r="D51">
+        <v>0.950592124843744</v>
+      </c>
+      <c r="E51">
+        <v>2.8826572637332002</v>
+      </c>
+      <c r="F51">
+        <v>33.509119708039002</v>
+      </c>
+      <c r="G51">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
